--- a/data/trans_dic/P16A_2_R3-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2536013227208556</v>
+        <v>0.2523135304756975</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4270150601139673</v>
+        <v>0.4287003955572728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3622135831747482</v>
+        <v>0.3615980036816666</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3379950680113867</v>
+        <v>0.3353428663024842</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4999838840506436</v>
+        <v>0.5031712548787071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4161679916090465</v>
+        <v>0.4197270425140739</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2079226169117315</v>
+        <v>0.2077594000887688</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3806347935481822</v>
+        <v>0.3781382273248811</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3081434621222158</v>
+        <v>0.3089119922026708</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2643199186986672</v>
+        <v>0.2658349883538147</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4304246991382651</v>
+        <v>0.4298748552836379</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3457478689690695</v>
+        <v>0.3487280157205047</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1886273190031804</v>
+        <v>0.1881436568087155</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.336252726017302</v>
+        <v>0.336797597848261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2682923541311654</v>
+        <v>0.2679987326828621</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2425332006190909</v>
+        <v>0.243260054330188</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3861385411669228</v>
+        <v>0.3870342849981064</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3082200800936712</v>
+        <v>0.3053469382670592</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.2292830808576485</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3345018374235182</v>
+        <v>0.3345018374235183</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.2800632743164196</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1999270289856674</v>
+        <v>0.2033291952555614</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3080896350950639</v>
+        <v>0.3064801129331266</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2605716363242093</v>
+        <v>0.2590149179668206</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.261359163416051</v>
+        <v>0.2627858643721169</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3642402993668004</v>
+        <v>0.3625535749216466</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3001926268328918</v>
+        <v>0.298541483198175</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.222871586904623</v>
+        <v>0.220582393452906</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3708837829309969</v>
+        <v>0.3717688328749948</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.301807277833497</v>
+        <v>0.3031155075196231</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2520622841621121</v>
+        <v>0.2520492116856977</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3985310018881472</v>
+        <v>0.3992110885520331</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3232275252472399</v>
+        <v>0.3243343462468916</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>126481</v>
+        <v>125839</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>266278</v>
+        <v>267329</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>406520</v>
+        <v>405829</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>168571</v>
+        <v>167249</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>311780</v>
+        <v>313768</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>467074</v>
+        <v>471068</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>199634</v>
+        <v>199477</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>424731</v>
+        <v>421945</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>639702</v>
+        <v>641297</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>253783</v>
+        <v>255238</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>480289</v>
+        <v>479675</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>717768</v>
+        <v>723954</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>197395</v>
+        <v>196888</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>352272</v>
+        <v>352843</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>561837</v>
+        <v>561222</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>253806</v>
+        <v>254567</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>404535</v>
+        <v>405473</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>645450</v>
+        <v>639433</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>195115</v>
+        <v>198435</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>280468</v>
+        <v>279003</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>491510</v>
+        <v>488573</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>255068</v>
+        <v>256460</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>331584</v>
+        <v>330049</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>566246</v>
+        <v>563131</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>775879</v>
+        <v>767910</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1371312</v>
+        <v>1374584</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2166584</v>
+        <v>2175976</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>877500</v>
+        <v>877455</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1473535</v>
+        <v>1476049</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2320354</v>
+        <v>2328299</v>
       </c>
     </row>
     <row r="24">
